--- a/budget.xlsx
+++ b/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dce25\Documents\R Projects\zelandica-IPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FEDD3E6-0956-4EBB-9CBE-193593293BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A21748-3A52-402F-B889-8F38A9CA2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{781D7BBE-04CC-45CC-BF09-04CE7B041965}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{781D7BBE-04CC-45CC-BF09-04CE7B041965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Salary and Personnel</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Michael Erb</t>
   </si>
   <si>
-    <t>Diana Thatcher</t>
-  </si>
-  <si>
     <t>Year 1</t>
   </si>
   <si>
@@ -62,43 +59,55 @@
     <t>6.75 months</t>
   </si>
   <si>
-    <t>1 month</t>
-  </si>
-  <si>
-    <t>2 months</t>
-  </si>
-  <si>
     <t>3 months</t>
   </si>
   <si>
-    <t>2 month</t>
-  </si>
-  <si>
     <t>Other Wages</t>
   </si>
   <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
     <t>320 hours</t>
   </si>
   <si>
     <t>Fringe benefits</t>
   </si>
   <si>
-    <t>Profession &amp; Scientific (P&amp;S) 37.5%</t>
-  </si>
-  <si>
-    <t>Undergraduate Students 1.8%</t>
-  </si>
-  <si>
     <t>Travel</t>
+  </si>
+  <si>
+    <t>3 month</t>
+  </si>
+  <si>
+    <t>NAU Undergraduate</t>
+  </si>
+  <si>
+    <t>Conference Travel</t>
+  </si>
+  <si>
+    <t>Field Work</t>
+  </si>
+  <si>
+    <t>Other Direct Costs</t>
+  </si>
+  <si>
+    <t>Laboratory consumables</t>
+  </si>
+  <si>
+    <t>Publication Costs</t>
+  </si>
+  <si>
+    <t>Geoduck harvesting</t>
+  </si>
+  <si>
+    <t>Indirect Costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,18 +125,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -136,12 +174,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,150 +502,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441081AB-9E45-451D-B984-EDDD3AB78144}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="8">
+        <v>4000</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="8">
+        <v>12000</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
+  <mergeCells count="6">
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dce25\Documents\R Projects\zelandica-IPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A21748-3A52-402F-B889-8F38A9CA2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407E37CD-E610-42CC-B0C6-148F13542236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{781D7BBE-04CC-45CC-BF09-04CE7B041965}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{781D7BBE-04CC-45CC-BF09-04CE7B041965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -188,6 +188,7 @@
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441081AB-9E45-451D-B984-EDDD3AB78144}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +517,7 @@
     <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -528,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -536,7 +537,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -550,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -564,13 +565,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -578,7 +579,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -589,14 +590,20 @@
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="11">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="11">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -604,19 +611,19 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2"/>
       <c r="C11" s="7"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -624,19 +631,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -646,13 +653,13 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="7"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dce25\Documents\R Projects\zelandica-IPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA55937-C01D-4F27-BEB8-54A31DFC8C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1C04AC-1F5E-49AC-8174-D2F8C06FFFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="503" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Year 1" sheetId="28" r:id="rId1"/>
@@ -3509,8 +3509,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AL114"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE70" sqref="AE70:AG70"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ22" sqref="BQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AA25" s="356">
         <f>SUM(Z10:AB17,Z22:AB24,Z69:AB98)</f>
-        <v>68899.25</v>
+        <v>84235.25</v>
       </c>
       <c r="AB25" s="357"/>
       <c r="AC25" s="89" t="s">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="AD25" s="297">
         <f>SUM(AC10:AE17,AC22:AE24,AC69:AE98)</f>
-        <v>27449.911</v>
+        <v>28685.992599999998</v>
       </c>
       <c r="AE25" s="297"/>
       <c r="AF25" s="297" t="e">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AI25" s="409">
         <f>SUM(AH10:AL17,AH22:AL24,AH69:AL98)</f>
-        <v>96349.160999999993</v>
+        <v>112921.2426</v>
       </c>
       <c r="AJ25" s="409"/>
       <c r="AK25" s="409"/>
@@ -5233,7 +5233,7 @@
         <v>53</v>
       </c>
       <c r="AI37" s="161">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="AJ37" s="162"/>
       <c r="AK37" s="162"/>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="AI49" s="281">
         <f>AI25+AI28+AI3+AI33+AI35+AI37+AI41+AI43+AI45</f>
-        <v>100849.16099999999</v>
+        <v>118421.2426</v>
       </c>
       <c r="AJ49" s="282"/>
       <c r="AK49" s="282"/>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="W51" s="334">
         <f>SUM(AI49-AI28-AI35-AE43-AE44)</f>
-        <v>100849.16099999999</v>
+        <v>118421.2426</v>
       </c>
       <c r="X51" s="334"/>
       <c r="Y51" s="334"/>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="AB51" s="324">
         <f>N51*W51/100</f>
-        <v>52441.563719999998</v>
+        <v>61579.046151999995</v>
       </c>
       <c r="AC51" s="324"/>
       <c r="AD51" s="324"/>
@@ -5790,7 +5790,7 @@
       <c r="AG51" s="170"/>
       <c r="AH51" s="275">
         <f>SUM(AB51:AE52)</f>
-        <v>52441.563719999998</v>
+        <v>61579.046151999995</v>
       </c>
       <c r="AI51" s="276"/>
       <c r="AJ51" s="276"/>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="AI54" s="297">
         <f>SUM(AH51:AL53)</f>
-        <v>52441.563719999998</v>
+        <v>61579.046151999995</v>
       </c>
       <c r="AJ54" s="297"/>
       <c r="AK54" s="297"/>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="AI56" s="299">
         <f>AI49+AI54</f>
-        <v>153290.72472</v>
+        <v>180000.28875199999</v>
       </c>
       <c r="AJ56" s="299"/>
       <c r="AK56" s="299"/>
@@ -6515,7 +6515,9 @@
       <c r="AL70" s="226"/>
     </row>
     <row r="71" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="203"/>
+      <c r="A71" s="203" t="s">
+        <v>99</v>
+      </c>
       <c r="B71" s="204"/>
       <c r="C71" s="204"/>
       <c r="D71" s="204"/>
@@ -6525,35 +6527,45 @@
       <c r="H71" s="204"/>
       <c r="I71" s="204"/>
       <c r="J71" s="205"/>
-      <c r="K71" s="206"/>
+      <c r="K71" s="206" t="s">
+        <v>23</v>
+      </c>
       <c r="L71" s="207"/>
       <c r="M71" s="207"/>
       <c r="N71" s="207"/>
       <c r="O71" s="207"/>
       <c r="P71" s="208"/>
-      <c r="Q71" s="119"/>
+      <c r="Q71" s="119">
+        <v>2556</v>
+      </c>
       <c r="R71" s="120"/>
       <c r="S71" s="121"/>
-      <c r="T71" s="209"/>
+      <c r="T71" s="209">
+        <v>3</v>
+      </c>
       <c r="U71" s="210"/>
-      <c r="V71" s="149"/>
+      <c r="V71" s="149">
+        <v>100</v>
+      </c>
       <c r="W71" s="150"/>
       <c r="X71" s="223">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y71" s="223"/>
       <c r="Z71" s="232">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7668</v>
       </c>
       <c r="AA71" s="147"/>
       <c r="AB71" s="147"/>
-      <c r="AC71" s="112"/>
+      <c r="AC71" s="112" t="s">
+        <v>85</v>
+      </c>
       <c r="AD71" s="113"/>
       <c r="AE71" s="130">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>618.04079999999999</v>
       </c>
       <c r="AF71" s="130" t="e">
         <f>(LOOKUP($AC71,AG71:$AL92,#REF!))</f>
@@ -6565,7 +6577,7 @@
       </c>
       <c r="AH71" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8286.0408000000007</v>
       </c>
       <c r="AI71" s="225"/>
       <c r="AJ71" s="225"/>
@@ -6573,7 +6585,9 @@
       <c r="AL71" s="226"/>
     </row>
     <row r="72" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="203"/>
+      <c r="A72" s="203" t="s">
+        <v>99</v>
+      </c>
       <c r="B72" s="204"/>
       <c r="C72" s="204"/>
       <c r="D72" s="204"/>
@@ -6583,35 +6597,45 @@
       <c r="H72" s="204"/>
       <c r="I72" s="204"/>
       <c r="J72" s="205"/>
-      <c r="K72" s="206"/>
+      <c r="K72" s="206" t="s">
+        <v>23</v>
+      </c>
       <c r="L72" s="207"/>
       <c r="M72" s="207"/>
       <c r="N72" s="207"/>
       <c r="O72" s="207"/>
       <c r="P72" s="208"/>
-      <c r="Q72" s="119"/>
+      <c r="Q72" s="119">
+        <v>2556</v>
+      </c>
       <c r="R72" s="120"/>
       <c r="S72" s="121"/>
-      <c r="T72" s="209"/>
+      <c r="T72" s="209">
+        <v>3</v>
+      </c>
       <c r="U72" s="210"/>
-      <c r="V72" s="149"/>
+      <c r="V72" s="149">
+        <v>100</v>
+      </c>
       <c r="W72" s="150"/>
       <c r="X72" s="223">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y72" s="223"/>
       <c r="Z72" s="232">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7668</v>
       </c>
       <c r="AA72" s="147"/>
       <c r="AB72" s="147"/>
-      <c r="AC72" s="112"/>
+      <c r="AC72" s="112" t="s">
+        <v>85</v>
+      </c>
       <c r="AD72" s="113"/>
       <c r="AE72" s="130">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>618.04079999999999</v>
       </c>
       <c r="AF72" s="130" t="e">
         <f>(LOOKUP($AC72,AG72:$AL93,#REF!))</f>
@@ -6623,7 +6647,7 @@
       </c>
       <c r="AH72" s="224">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8286.0408000000007</v>
       </c>
       <c r="AI72" s="225"/>
       <c r="AJ72" s="225"/>
@@ -8807,10 +8831,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:AL100"/>
+  <dimension ref="A1:AO100"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE70" sqref="AE70:AG70"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI41" sqref="AI41:AL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10068,7 +10092,7 @@
       </c>
       <c r="AA25" s="356">
         <f>SUM(Z10:AB17,Z22:AB24,Z69:AB98)</f>
-        <v>86305.427500000005</v>
+        <v>70966.227500000008</v>
       </c>
       <c r="AB25" s="357"/>
       <c r="AC25" s="89" t="s">
@@ -10076,7 +10100,7 @@
       </c>
       <c r="AD25" s="297">
         <f>SUM(AC10:AE17,AC22:AE24,AC69:AE98)</f>
-        <v>29509.503050000003</v>
+        <v>28273.408330000006</v>
       </c>
       <c r="AE25" s="297"/>
       <c r="AF25" s="297" t="e">
@@ -10089,7 +10113,7 @@
       </c>
       <c r="AI25" s="409">
         <f>SUM(AH10:AL17,AH22:AL24,AH69:AL98)</f>
-        <v>115814.93055000002</v>
+        <v>99239.635830000014</v>
       </c>
       <c r="AJ25" s="409"/>
       <c r="AK25" s="409"/>
@@ -10412,7 +10436,7 @@
       <c r="AK32" s="84"/>
       <c r="AL32" s="85"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="365" t="str">
         <f>'Year 1'!A33:G34</f>
         <v xml:space="preserve">Consultant(s) </v>
@@ -10460,7 +10484,7 @@
       <c r="AK33" s="341"/>
       <c r="AL33" s="342"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="367"/>
       <c r="B34" s="368"/>
       <c r="C34" s="368"/>
@@ -10500,7 +10524,7 @@
       <c r="AK34" s="241"/>
       <c r="AL34" s="343"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="363" t="str">
         <f>'Year 1'!A35:G36</f>
         <v>Equipment</v>
@@ -10548,7 +10572,7 @@
       <c r="AK35" s="344"/>
       <c r="AL35" s="345"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="367"/>
       <c r="B36" s="368"/>
       <c r="C36" s="368"/>
@@ -10588,7 +10612,7 @@
       <c r="AK36" s="241"/>
       <c r="AL36" s="343"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="363" t="str">
         <f>'Year 1'!A37:G40</f>
         <v>Supplies and Materials</v>
@@ -10629,14 +10653,13 @@
         <v>53</v>
       </c>
       <c r="AI37" s="161">
-        <f>R37+R38+R39+R40+AE37+AE38+AE39+AE40</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AJ37" s="162"/>
       <c r="AK37" s="162"/>
       <c r="AL37" s="163"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="365"/>
       <c r="B38" s="366"/>
       <c r="C38" s="366"/>
@@ -10678,8 +10701,11 @@
       <c r="AJ38" s="162"/>
       <c r="AK38" s="162"/>
       <c r="AL38" s="163"/>
-    </row>
-    <row r="39" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="365"/>
       <c r="B39" s="366"/>
       <c r="C39" s="366"/>
@@ -10719,7 +10745,7 @@
       <c r="AK39" s="162"/>
       <c r="AL39" s="163"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="367"/>
       <c r="B40" s="368"/>
       <c r="C40" s="368"/>
@@ -10759,7 +10785,7 @@
       <c r="AK40" s="348"/>
       <c r="AL40" s="349"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="363" t="str">
         <f>'Year 1'!A41:G42</f>
         <v>Travel</v>
@@ -10802,13 +10828,13 @@
         <v>53</v>
       </c>
       <c r="AI41" s="344">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AJ41" s="344"/>
       <c r="AK41" s="344"/>
       <c r="AL41" s="345"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="367"/>
       <c r="B42" s="368"/>
       <c r="C42" s="368"/>
@@ -10848,7 +10874,7 @@
       <c r="AK42" s="241"/>
       <c r="AL42" s="343"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="363" t="str">
         <f>'Year 1'!A43:G44</f>
         <v>Subaward(s)</v>
@@ -10902,7 +10928,7 @@
       <c r="AK43" s="346"/>
       <c r="AL43" s="347"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="367"/>
       <c r="B44" s="368"/>
       <c r="C44" s="368"/>
@@ -10942,7 +10968,7 @@
       <c r="AK44" s="279"/>
       <c r="AL44" s="280"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="363" t="str">
         <f>'Year 1'!A45:G48</f>
         <v>Other Expenses</v>
@@ -10985,13 +11011,13 @@
         <v>53</v>
       </c>
       <c r="AI45" s="161">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="AJ45" s="162"/>
       <c r="AK45" s="162"/>
       <c r="AL45" s="163"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="365"/>
       <c r="B46" s="366"/>
       <c r="C46" s="366"/>
@@ -11031,7 +11057,7 @@
       <c r="AK46" s="162"/>
       <c r="AL46" s="163"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="365"/>
       <c r="B47" s="366"/>
       <c r="C47" s="366"/>
@@ -11071,7 +11097,7 @@
       <c r="AK47" s="162"/>
       <c r="AL47" s="163"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="367"/>
       <c r="B48" s="368"/>
       <c r="C48" s="368"/>
@@ -11131,7 +11157,7 @@
       </c>
       <c r="AI49" s="281">
         <f>AI25+AI28+AI33+AI35+AI37+AI41+AI43+AI45</f>
-        <v>131814.93055000002</v>
+        <v>123239.63583000001</v>
       </c>
       <c r="AJ49" s="282"/>
       <c r="AK49" s="282"/>
@@ -11182,7 +11208,7 @@
       </c>
       <c r="W51" s="334">
         <f>SUM(AI49-AI28-AI35-AE43-AE44)</f>
-        <v>131814.93055000002</v>
+        <v>123239.63583000001</v>
       </c>
       <c r="X51" s="334"/>
       <c r="Y51" s="334"/>
@@ -11192,7 +11218,7 @@
       </c>
       <c r="AB51" s="324">
         <f>N51*W51/100</f>
-        <v>68543.763886000015</v>
+        <v>64084.6106316</v>
       </c>
       <c r="AC51" s="324"/>
       <c r="AD51" s="324"/>
@@ -11203,7 +11229,7 @@
       <c r="AG51" s="170"/>
       <c r="AH51" s="275">
         <f>SUM(AB51:AE52)</f>
-        <v>68543.763886000015</v>
+        <v>64084.6106316</v>
       </c>
       <c r="AI51" s="276"/>
       <c r="AJ51" s="276"/>
@@ -11303,7 +11329,7 @@
       </c>
       <c r="AI54" s="297">
         <f>SUM(AH51:AL53)</f>
-        <v>68543.763886000015</v>
+        <v>64084.6106316</v>
       </c>
       <c r="AJ54" s="297"/>
       <c r="AK54" s="297"/>
@@ -11337,7 +11363,7 @@
       </c>
       <c r="AI56" s="299">
         <f>AI49+AI54</f>
-        <v>200358.69443600002</v>
+        <v>187324.24646160001</v>
       </c>
       <c r="AJ56" s="299"/>
       <c r="AK56" s="299"/>
@@ -11886,7 +11912,8 @@
       <c r="O70" s="207"/>
       <c r="P70" s="208"/>
       <c r="Q70" s="119">
-        <v>639</v>
+        <f>SUM('Year 1'!Q70:S70*1.03)</f>
+        <v>638.6</v>
       </c>
       <c r="R70" s="120"/>
       <c r="S70" s="121"/>
@@ -11905,7 +11932,7 @@
       <c r="Y70" s="223"/>
       <c r="Z70" s="232">
         <f t="shared" si="7"/>
-        <v>5112</v>
+        <v>5108.8</v>
       </c>
       <c r="AA70" s="147"/>
       <c r="AB70" s="147"/>
@@ -11915,7 +11942,7 @@
       <c r="AD70" s="113"/>
       <c r="AE70" s="130">
         <f t="shared" si="8"/>
-        <v>20.959199999999996</v>
+        <v>20.946079999999998</v>
       </c>
       <c r="AF70" s="130" t="e">
         <f>(LOOKUP($AC70,AG70:$AL91,#REF!))</f>
@@ -11927,7 +11954,7 @@
       </c>
       <c r="AH70" s="224">
         <f t="shared" si="9"/>
-        <v>5132.9592000000002</v>
+        <v>5129.7460799999999</v>
       </c>
       <c r="AI70" s="225"/>
       <c r="AJ70" s="225"/>
@@ -11935,9 +11962,7 @@
       <c r="AL70" s="226"/>
     </row>
     <row r="71" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="203" t="s">
-        <v>99</v>
-      </c>
+      <c r="A71" s="203"/>
       <c r="B71" s="204"/>
       <c r="C71" s="204"/>
       <c r="D71" s="204"/>
@@ -11947,45 +11972,35 @@
       <c r="H71" s="204"/>
       <c r="I71" s="204"/>
       <c r="J71" s="205"/>
-      <c r="K71" s="206" t="s">
-        <v>23</v>
-      </c>
+      <c r="K71" s="206"/>
       <c r="L71" s="207"/>
       <c r="M71" s="207"/>
       <c r="N71" s="207"/>
       <c r="O71" s="207"/>
       <c r="P71" s="208"/>
-      <c r="Q71" s="119">
-        <v>2556</v>
-      </c>
+      <c r="Q71" s="119"/>
       <c r="R71" s="120"/>
       <c r="S71" s="121"/>
-      <c r="T71" s="209">
-        <v>3</v>
-      </c>
+      <c r="T71" s="209"/>
       <c r="U71" s="210"/>
-      <c r="V71" s="149">
-        <v>100</v>
-      </c>
+      <c r="V71" s="149"/>
       <c r="W71" s="150"/>
       <c r="X71" s="223">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="223"/>
       <c r="Z71" s="232">
         <f t="shared" si="7"/>
-        <v>7668</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="147"/>
       <c r="AB71" s="147"/>
-      <c r="AC71" s="112" t="s">
-        <v>85</v>
-      </c>
+      <c r="AC71" s="112"/>
       <c r="AD71" s="113"/>
       <c r="AE71" s="130">
         <f t="shared" si="8"/>
-        <v>618.04079999999999</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="130" t="e">
         <f>(LOOKUP($AC71,AG71:$AL92,#REF!))</f>
@@ -11997,7 +12012,7 @@
       </c>
       <c r="AH71" s="224">
         <f t="shared" si="9"/>
-        <v>8286.0408000000007</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="225"/>
       <c r="AJ71" s="225"/>
@@ -12005,9 +12020,7 @@
       <c r="AL71" s="226"/>
     </row>
     <row r="72" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="203" t="s">
-        <v>99</v>
-      </c>
+      <c r="A72" s="203"/>
       <c r="B72" s="204"/>
       <c r="C72" s="204"/>
       <c r="D72" s="204"/>
@@ -12017,45 +12030,35 @@
       <c r="H72" s="204"/>
       <c r="I72" s="204"/>
       <c r="J72" s="205"/>
-      <c r="K72" s="206" t="s">
-        <v>23</v>
-      </c>
+      <c r="K72" s="206"/>
       <c r="L72" s="207"/>
       <c r="M72" s="207"/>
       <c r="N72" s="207"/>
       <c r="O72" s="207"/>
       <c r="P72" s="208"/>
-      <c r="Q72" s="119">
-        <v>2556</v>
-      </c>
+      <c r="Q72" s="119"/>
       <c r="R72" s="120"/>
       <c r="S72" s="121"/>
-      <c r="T72" s="209">
-        <v>3</v>
-      </c>
+      <c r="T72" s="209"/>
       <c r="U72" s="210"/>
-      <c r="V72" s="149">
-        <v>100</v>
-      </c>
+      <c r="V72" s="149"/>
       <c r="W72" s="150"/>
       <c r="X72" s="223">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="223"/>
       <c r="Z72" s="232">
         <f t="shared" si="7"/>
-        <v>7668</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="147"/>
       <c r="AB72" s="147"/>
-      <c r="AC72" s="112" t="s">
-        <v>85</v>
-      </c>
+      <c r="AC72" s="112"/>
       <c r="AD72" s="113"/>
       <c r="AE72" s="130">
         <f t="shared" si="8"/>
-        <v>618.04079999999999</v>
+        <v>0</v>
       </c>
       <c r="AF72" s="130" t="e">
         <f>(LOOKUP($AC72,AG72:$AL93,#REF!))</f>
@@ -12067,7 +12070,7 @@
       </c>
       <c r="AH72" s="224">
         <f t="shared" si="9"/>
-        <v>8286.0408000000007</v>
+        <v>0</v>
       </c>
       <c r="AI72" s="225"/>
       <c r="AJ72" s="225"/>
@@ -14247,8 +14250,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV19" sqref="BV19"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W51" sqref="W51:Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17326,7 +17329,7 @@
       <c r="P70" s="208"/>
       <c r="Q70" s="119">
         <f>SUM('Year 2'!Q70:S70*1.03)</f>
-        <v>658.17000000000007</v>
+        <v>657.75800000000004</v>
       </c>
       <c r="R70" s="120"/>
       <c r="S70" s="121"/>
@@ -19656,8 +19659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24:AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19989,7 +19992,7 @@
       <c r="I11" s="457"/>
       <c r="J11" s="453">
         <f>'Year 1'!AA25</f>
-        <v>68899.25</v>
+        <v>84235.25</v>
       </c>
       <c r="K11" s="454"/>
       <c r="L11" s="454"/>
@@ -19997,7 +20000,7 @@
       <c r="N11" s="454"/>
       <c r="O11" s="454">
         <f>'Year 2'!AA25</f>
-        <v>86305.427500000005</v>
+        <v>70966.227500000008</v>
       </c>
       <c r="P11" s="454"/>
       <c r="Q11" s="454"/>
@@ -20013,7 +20016,7 @@
       <c r="X11" s="454"/>
       <c r="Y11" s="484">
         <f t="shared" ref="Y11:Y19" si="0">SUM(J11:X11)</f>
-        <v>217775.763825</v>
+        <v>217772.56382500002</v>
       </c>
       <c r="Z11" s="485"/>
       <c r="AA11" s="485"/>
@@ -20035,7 +20038,7 @@
       <c r="I12" s="460"/>
       <c r="J12" s="461">
         <f>'Year 1'!AD25</f>
-        <v>27449.911</v>
+        <v>28685.992599999998</v>
       </c>
       <c r="K12" s="461"/>
       <c r="L12" s="461"/>
@@ -20043,7 +20046,7 @@
       <c r="N12" s="461"/>
       <c r="O12" s="461">
         <f>'Year 2'!AD25</f>
-        <v>29509.503050000003</v>
+        <v>28273.408330000006</v>
       </c>
       <c r="P12" s="461"/>
       <c r="Q12" s="461"/>
@@ -20059,7 +20062,7 @@
       <c r="X12" s="461"/>
       <c r="Y12" s="481">
         <f t="shared" si="0"/>
-        <v>86037.875705100014</v>
+        <v>86037.862585099996</v>
       </c>
       <c r="Z12" s="482"/>
       <c r="AA12" s="482"/>
@@ -20219,7 +20222,7 @@
       <c r="I16" s="467"/>
       <c r="J16" s="429">
         <f>'Year 1'!AI37</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K16" s="430"/>
       <c r="L16" s="430"/>
@@ -20227,7 +20230,7 @@
       <c r="N16" s="430"/>
       <c r="O16" s="430">
         <f>'Year 2'!AI37</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P16" s="430"/>
       <c r="Q16" s="430"/>
@@ -20243,7 +20246,7 @@
       <c r="X16" s="430"/>
       <c r="Y16" s="423">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="Z16" s="424"/>
       <c r="AA16" s="424"/>
@@ -20273,7 +20276,7 @@
       <c r="N17" s="430"/>
       <c r="O17" s="430">
         <f>'Year 2'!AI41</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P17" s="430"/>
       <c r="Q17" s="430"/>
@@ -20289,7 +20292,7 @@
       <c r="X17" s="430"/>
       <c r="Y17" s="423">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Z17" s="424"/>
       <c r="AA17" s="424"/>
@@ -20365,7 +20368,7 @@
       <c r="N19" s="477"/>
       <c r="O19" s="477">
         <f>'Year 2'!AI45</f>
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P19" s="477"/>
       <c r="Q19" s="477"/>
@@ -20381,7 +20384,7 @@
       <c r="X19" s="477"/>
       <c r="Y19" s="423">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Z19" s="424"/>
       <c r="AA19" s="424"/>
@@ -20403,7 +20406,7 @@
       <c r="I20" s="435"/>
       <c r="J20" s="443">
         <f>SUM(J11:N19)</f>
-        <v>100849.16099999999</v>
+        <v>118421.2426</v>
       </c>
       <c r="K20" s="444"/>
       <c r="L20" s="444"/>
@@ -20411,7 +20414,7 @@
       <c r="N20" s="444"/>
       <c r="O20" s="444">
         <f>SUM(O11:S19)</f>
-        <v>131814.93054999999</v>
+        <v>123239.63583000001</v>
       </c>
       <c r="P20" s="444"/>
       <c r="Q20" s="444"/>
@@ -20427,7 +20430,7 @@
       <c r="X20" s="444"/>
       <c r="Y20" s="478">
         <f>SUM(Y11:AD19)</f>
-        <v>327813.63953010004</v>
+        <v>336810.42641010002</v>
       </c>
       <c r="Z20" s="479"/>
       <c r="AA20" s="479"/>
@@ -20449,7 +20452,7 @@
       </c>
       <c r="J21" s="439">
         <f>'Year 1'!W51</f>
-        <v>100849.16099999999</v>
+        <v>118421.2426</v>
       </c>
       <c r="K21" s="439"/>
       <c r="L21" s="439"/>
@@ -20457,7 +20460,7 @@
       <c r="N21" s="439"/>
       <c r="O21" s="439">
         <f>'Year 2'!W51</f>
-        <v>131814.93055000002</v>
+        <v>123239.63583000001</v>
       </c>
       <c r="P21" s="439"/>
       <c r="Q21" s="439"/>
@@ -20473,7 +20476,7 @@
       <c r="X21" s="439"/>
       <c r="Y21" s="473">
         <f>SUM(J21:X21)</f>
-        <v>327813.63953010004</v>
+        <v>336810.42641010002</v>
       </c>
       <c r="Z21" s="474"/>
       <c r="AA21" s="474"/>
@@ -20495,7 +20498,7 @@
       <c r="I22" s="433"/>
       <c r="J22" s="443">
         <f>'Year 1'!AI54</f>
-        <v>52441.563719999998</v>
+        <v>61579.046151999995</v>
       </c>
       <c r="K22" s="444"/>
       <c r="L22" s="444"/>
@@ -20503,7 +20506,7 @@
       <c r="N22" s="445"/>
       <c r="O22" s="444">
         <f>'Year 2'!AI54</f>
-        <v>68543.763886000015</v>
+        <v>64084.6106316</v>
       </c>
       <c r="P22" s="444"/>
       <c r="Q22" s="444"/>
@@ -20519,7 +20522,7 @@
       <c r="X22" s="444"/>
       <c r="Y22" s="448">
         <f>SUM(J22:X22)</f>
-        <v>170463.09255565202</v>
+        <v>175141.42173325201</v>
       </c>
       <c r="Z22" s="449"/>
       <c r="AA22" s="449"/>
@@ -20573,7 +20576,7 @@
       <c r="I24" s="433"/>
       <c r="J24" s="446">
         <f>J20+J22</f>
-        <v>153290.72472</v>
+        <v>180000.28875199999</v>
       </c>
       <c r="K24" s="447"/>
       <c r="L24" s="447"/>
@@ -20581,7 +20584,7 @@
       <c r="N24" s="447"/>
       <c r="O24" s="447">
         <f>O20+O22</f>
-        <v>200358.69443600002</v>
+        <v>187324.24646160001</v>
       </c>
       <c r="P24" s="447"/>
       <c r="Q24" s="447"/>
@@ -20597,7 +20600,7 @@
       <c r="X24" s="447"/>
       <c r="Y24" s="440">
         <f>SUM(J24:X24)</f>
-        <v>498276.73208575201</v>
+        <v>511951.84814335202</v>
       </c>
       <c r="Z24" s="441"/>
       <c r="AA24" s="441"/>
